--- a/proj1/sample_output/marksheet/1401CS33.xlsx
+++ b/proj1/sample_output/marksheet/1401CS33.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -666,13 +666,13 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="D12" s="9" t="n"/>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>55.0/145.0</t>
+          <t>67.0/145.0</t>
         </is>
       </c>
     </row>

--- a/proj1/sample_output/marksheet/1401CS33.xlsx
+++ b/proj1/sample_output/marksheet/1401CS33.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -221,13 +221,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -643,7 +643,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -666,13 +666,13 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D12" s="9" t="n"/>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>67.0/145.0</t>
+          <t>73.0/145.0</t>
         </is>
       </c>
     </row>
@@ -1024,6 +1024,6 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>